--- a/transformation steps.xlsx
+++ b/transformation steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Dropbox\Barque\Marketing\Presos\2021\Analytics Conferences\iia-birmingham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C60D16-C486-4E66-A4C2-B9DC532D9BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D0860-18B5-4DCE-BCFB-CDE8C36DC2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9015" windowWidth="29040" windowHeight="16440" xr2:uid="{9315988E-54E3-4599-A7D4-BCC73F29DE20}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{9315988E-54E3-4599-A7D4-BCC73F29DE20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Load excel sheet (3 sheets)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Change All Caps to Title String</t>
+  </si>
+  <si>
+    <t>Remove Blanks</t>
   </si>
 </sst>
 </file>
@@ -89,12 +92,24 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -134,23 +149,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,117 +482,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B6EDAA-1226-4444-86F2-49615DAFF5A9}">
-  <dimension ref="A3:F11"/>
+  <dimension ref="A3:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="2"/>
     <col min="2" max="2" width="2.9296875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="2"/>
+    <col min="3" max="3" width="31.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A6:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
